--- a/deployment/forecast-tables.xlsx
+++ b/deployment/forecast-tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\__Projects\econforecasting\modules\create-sql-tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF208A75-1D48-483A-873B-0E2345977F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC88B6D2-7498-448C-829B-9EC1F76E0DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="forecasts" sheetId="12" r:id="rId1"/>
@@ -1685,34 +1685,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7D7D"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1944,6 +1916,34 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7D7D"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1969,24 +1969,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9BF0F429-29B2-4294-B7A2-79B0C1D59CBE}" name="Table1327" displayName="Table1327" ref="A1:L114" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9BF0F429-29B2-4294-B7A2-79B0C1D59CBE}" name="Table1327" displayName="Table1327" ref="A1:L114" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:L114" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L113">
     <sortCondition ref="C1:C113"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{06A4A672-09EE-4DC6-9B74-6C96B10B19A9}" name="varname" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{9EE4570B-6B9A-4A19-BCD2-CC9F558F1A39}" name="fullname" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{445818A7-0C03-496A-9F03-C0F1A692B978}" name="dispgroup" dataDxfId="13"/>
-    <tableColumn id="21" xr3:uid="{621C897B-D737-4C13-BA42-A8685BC996AF}" name="disporder" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{C16CDFB6-0351-4C97-BE71-77D64AA5A8C9}" name="release" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{1D18F3A6-5B37-4AE0-A67A-4BAEED08A5F9}" name="units" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{65521ED0-11BE-4DE7-8954-09B7C6A08CC0}" name="d1" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{9D56F00C-543D-43DE-9916-EE4811ABA79E}" name="d2" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{1C3AA07F-56DA-4994-9225-B9D5205877C4}" name="hist_source" dataDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{167E969F-257F-4290-9851-386858BC28D6}" name="hist_source_key" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{A6782029-125F-4B9D-98E4-9AFC08718DFD}" name="hist_source_freq" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{E7C5D4F8-69B1-411D-884E-EB9AB632410B}" name="hist_source_transform" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{06A4A672-09EE-4DC6-9B74-6C96B10B19A9}" name="varname" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{9EE4570B-6B9A-4A19-BCD2-CC9F558F1A39}" name="fullname" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{445818A7-0C03-496A-9F03-C0F1A692B978}" name="dispgroup" dataDxfId="9"/>
+    <tableColumn id="21" xr3:uid="{621C897B-D737-4C13-BA42-A8685BC996AF}" name="disporder" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{C16CDFB6-0351-4C97-BE71-77D64AA5A8C9}" name="release" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{1D18F3A6-5B37-4AE0-A67A-4BAEED08A5F9}" name="units" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{65521ED0-11BE-4DE7-8954-09B7C6A08CC0}" name="d1" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{9D56F00C-543D-43DE-9916-EE4811ABA79E}" name="d2" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{1C3AA07F-56DA-4994-9225-B9D5205877C4}" name="hist_source" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{167E969F-257F-4290-9851-386858BC28D6}" name="hist_source_key" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{A6782029-125F-4B9D-98E4-9AFC08718DFD}" name="hist_source_freq" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{E7C5D4F8-69B1-411D-884E-EB9AB632410B}" name="hist_source_transform" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2464,8 +2464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C376F7-1E7E-44FE-9F6F-977B435E0AEC}">
   <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4856,7 +4856,7 @@
         <v>420</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>28</v>
+        <v>264</v>
       </c>
       <c r="L64" s="5" t="s">
         <v>231</v>
@@ -6615,16 +6615,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="3" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"q"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>"m"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
       <formula>"w"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
       <formula>"d"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/deployment/forecast-tables.xlsx
+++ b/deployment/forecast-tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC88B6D2-7498-448C-829B-9EC1F76E0DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D6D3CD-192A-4296-AB44-B5B6F962B8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="forecasts" sheetId="12" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="478">
   <si>
     <t>gdp</t>
   </si>
@@ -154,12 +154,6 @@
     <t>TWEXBGSMTH</t>
   </si>
   <si>
-    <t>uemean</t>
-  </si>
-  <si>
-    <t>UEMPMEAN</t>
-  </si>
-  <si>
     <t>advsales</t>
   </si>
   <si>
@@ -226,12 +220,6 @@
     <t>CSCICP03USM665S</t>
   </si>
   <si>
-    <t>Industrial Production index</t>
-  </si>
-  <si>
-    <t>INDPRO</t>
-  </si>
-  <si>
     <t>pce</t>
   </si>
   <si>
@@ -247,9 +235,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>Average Weeks Unemployed</t>
-  </si>
-  <si>
     <t>Retail &amp; Food Sales</t>
   </si>
   <si>
@@ -421,9 +406,6 @@
     <t>Inflation</t>
   </si>
   <si>
-    <t>weeks</t>
-  </si>
-  <si>
     <t>IMPGSC1</t>
   </si>
   <si>
@@ -601,9 +583,6 @@
     <t>PMSAVE</t>
   </si>
   <si>
-    <t>ipi</t>
-  </si>
-  <si>
     <t>delinqrer</t>
   </si>
   <si>
@@ -898,9 +877,6 @@
     <t>http://www.census.gov/indicator/www/m3/</t>
   </si>
   <si>
-    <t>http://www.federalreserve.gov/releases/g17/</t>
-  </si>
-  <si>
     <t>http://www.census.gov/construction/c30/c30index.html</t>
   </si>
   <si>
@@ -922,18 +898,9 @@
     <t>http://www.federalreserve.gov/releases/g5/</t>
   </si>
   <si>
-    <t>https://www.kansascityfed.org/data-and-trends/labor-market-conditions-indicators/</t>
-  </si>
-  <si>
-    <t>http://www.oecd-ilibrary.org/economics/data/main-economic-indicators/main-economic-indicators-complete-database_data-00052-en</t>
-  </si>
-  <si>
     <t>http://www.federalreserve.gov/releases/chargeoff/default.htm</t>
   </si>
   <si>
-    <t>http://www.newyorkfed.org/survey/empire/empiresurvey_overview.html</t>
-  </si>
-  <si>
     <t>https://www.dallasfed.org/research/surveys/tmos.aspx</t>
   </si>
   <si>
@@ -970,9 +937,6 @@
     <t>Manufacturer's Shipments, Inventories, and Orders (M3) Survey</t>
   </si>
   <si>
-    <t>G.17 Industrial Production and Capacity Utilization</t>
-  </si>
-  <si>
     <t>Construction Spending</t>
   </si>
   <si>
@@ -994,18 +958,9 @@
     <t>G.5 Foreign Exchange Rates</t>
   </si>
   <si>
-    <t>Kansas City Fed Labor Market Conditions Indicators</t>
-  </si>
-  <si>
-    <t>Main Economic Indicators</t>
-  </si>
-  <si>
     <t>Charge-Off and Delinquency Rates on Loans and Leases at Commercial Banks</t>
   </si>
   <si>
-    <t>Empire State Manufacturing Survey</t>
-  </si>
-  <si>
     <t>Texas Manufacturing Outlook Survey</t>
   </si>
   <si>
@@ -1033,9 +988,6 @@
     <t>SP.CS</t>
   </si>
   <si>
-    <t>FRB.G17</t>
-  </si>
-  <si>
     <t>FRB.H8</t>
   </si>
   <si>
@@ -1081,9 +1033,6 @@
     <t>PHI.BOS</t>
   </si>
   <si>
-    <t>NYF.MS</t>
-  </si>
-  <si>
     <t>OECD.MEI</t>
   </si>
   <si>
@@ -1102,9 +1051,6 @@
     <t>CEN.ADV</t>
   </si>
   <si>
-    <t>KAN.LABOR</t>
-  </si>
-  <si>
     <t>BEA.PI</t>
   </si>
   <si>
@@ -1222,36 +1168,6 @@
     <t>https://coinbase.com</t>
   </si>
   <si>
-    <t>vacancies</t>
-  </si>
-  <si>
-    <t>Total Unfilled Job Vacancies</t>
-  </si>
-  <si>
-    <t>LMJVTTUVUSM647S</t>
-  </si>
-  <si>
-    <t>isratio</t>
-  </si>
-  <si>
-    <t>Inventory to Sales Ratio</t>
-  </si>
-  <si>
-    <t>ISRATIO</t>
-  </si>
-  <si>
-    <t>CEN.MTIS</t>
-  </si>
-  <si>
-    <t>Manufacturing and Trade Inventories and Sales</t>
-  </si>
-  <si>
-    <t>http://www.census.gov/mtis/www/mtis.html</t>
-  </si>
-  <si>
-    <t>ratio</t>
-  </si>
-  <si>
     <t>cbi</t>
   </si>
   <si>
@@ -1282,9 +1198,6 @@
     <t>CPI Inflation</t>
   </si>
   <si>
-    <t>USACPIALLMINMEI</t>
-  </si>
-  <si>
     <t>unemp</t>
   </si>
   <si>
@@ -1315,9 +1228,6 @@
     <t>BSBY Rate</t>
   </si>
   <si>
-    <t>amx</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
@@ -1420,42 +1330,9 @@
     <t>Interest_Rates</t>
   </si>
   <si>
-    <t>Production</t>
-  </si>
-  <si>
     <t>Retail_Sales</t>
   </si>
   <si>
-    <t>ipfinal</t>
-  </si>
-  <si>
-    <t>ipcons</t>
-  </si>
-  <si>
-    <t>ipfuelds</t>
-  </si>
-  <si>
-    <t>Industrial Production: Final Products</t>
-  </si>
-  <si>
-    <t>Industrial Production: Consumer Goods</t>
-  </si>
-  <si>
-    <t>Industrial Production: Fuels</t>
-  </si>
-  <si>
-    <t>index (2017 = 100)</t>
-  </si>
-  <si>
-    <t>IPFPNSS</t>
-  </si>
-  <si>
-    <t>IPCONGD</t>
-  </si>
-  <si>
-    <t>IPFUELS</t>
-  </si>
-  <si>
     <t>CMEFI Composite Model</t>
   </si>
   <si>
@@ -1558,18 +1435,12 @@
     <t>url</t>
   </si>
   <si>
-    <t>AMX Ameribor</t>
-  </si>
-  <si>
     <t>https://ameribor.net/</t>
   </si>
   <si>
     <t>vintage_update</t>
   </si>
   <si>
-    <t>AMX</t>
-  </si>
-  <si>
     <t>BLOOM</t>
   </si>
   <si>
@@ -1586,6 +1457,18 @@
   </si>
   <si>
     <t>https://www.moodys.com/</t>
+  </si>
+  <si>
+    <t>AFX</t>
+  </si>
+  <si>
+    <t>afx</t>
+  </si>
+  <si>
+    <t>AFX Ameribor</t>
+  </si>
+  <si>
+    <t>CPIAUCSL</t>
   </si>
 </sst>
 </file>
@@ -1969,10 +1852,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9BF0F429-29B2-4294-B7A2-79B0C1D59CBE}" name="Table1327" displayName="Table1327" ref="A1:L114" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L114" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L113">
-    <sortCondition ref="C1:C113"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9BF0F429-29B2-4294-B7A2-79B0C1D59CBE}" name="Table1327" displayName="Table1327" ref="A1:L107" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L107" xr:uid="{EC6D9A60-7AF3-4545-B540-E43EAD70DF9B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L106">
+    <sortCondition ref="C1:C106"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{06A4A672-09EE-4DC6-9B74-6C96B10B19A9}" name="varname" dataDxfId="11"/>
@@ -2304,84 +2187,84 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>480</v>
+        <v>439</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="D1" t="s">
-        <v>477</v>
+        <v>436</v>
       </c>
       <c r="E1" t="s">
-        <v>484</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="B2" t="s">
-        <v>473</v>
+        <v>432</v>
       </c>
       <c r="C2" t="s">
-        <v>501</v>
+        <v>460</v>
       </c>
       <c r="D2" t="s">
-        <v>479</v>
+        <v>438</v>
       </c>
       <c r="E2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>463</v>
       </c>
       <c r="B3" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="C3" t="s">
-        <v>499</v>
+        <v>458</v>
       </c>
       <c r="D3" t="s">
-        <v>479</v>
+        <v>438</v>
       </c>
       <c r="E3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>502</v>
+        <v>461</v>
       </c>
       <c r="B4" t="s">
-        <v>503</v>
+        <v>462</v>
       </c>
       <c r="C4" t="s">
-        <v>505</v>
+        <v>464</v>
       </c>
       <c r="D4" t="s">
-        <v>479</v>
+        <v>438</v>
       </c>
       <c r="E4" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="B5" t="s">
-        <v>497</v>
+        <v>456</v>
       </c>
       <c r="C5" t="s">
-        <v>498</v>
+        <v>457</v>
       </c>
       <c r="D5" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -2389,16 +2272,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>486</v>
+        <v>445</v>
       </c>
       <c r="B6" t="s">
-        <v>493</v>
+        <v>452</v>
       </c>
       <c r="C6" t="s">
-        <v>493</v>
+        <v>452</v>
       </c>
       <c r="D6" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
@@ -2406,16 +2289,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="B7" t="s">
-        <v>492</v>
+        <v>451</v>
       </c>
       <c r="C7" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="D7" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -2423,16 +2306,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="B8" t="s">
-        <v>491</v>
+        <v>450</v>
       </c>
       <c r="C8" t="s">
-        <v>490</v>
+        <v>449</v>
       </c>
       <c r="D8" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -2440,16 +2323,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="B9" t="s">
-        <v>496</v>
+        <v>455</v>
       </c>
       <c r="C9" t="s">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="D9" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -2462,10 +2345,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C376F7-1E7E-44FE-9F6F-977B435E0AEC}">
-  <dimension ref="A1:L114"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2489,615 +2372,615 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>481</v>
+        <v>440</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>36</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="D9" s="4">
         <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="D10" s="4">
         <v>4</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="D11" s="4">
         <v>5</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>76</v>
+        <v>268</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>76</v>
+        <v>268</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>76</v>
+        <v>268</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -3105,28 +2988,28 @@
         <v>0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>14</v>
@@ -3135,1053 +3018,1053 @@
         <v>16</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D20" s="4">
         <v>4</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21" s="4">
         <v>5</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22" s="4">
         <v>6</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D23" s="4">
         <v>7</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D24" s="4">
         <v>8</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D25" s="4">
         <v>9</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D26" s="4">
         <v>10</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D27" s="4">
         <v>11</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D28" s="4">
         <v>12</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D29" s="4">
         <v>13</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D30" s="4">
         <v>14</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D31" s="4">
         <v>15</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" s="4">
         <v>16</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D33" s="4">
         <v>17</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D34" s="4">
         <v>18</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D35" s="4">
         <v>19</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D36" s="4">
         <v>20</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D37" s="4">
         <v>21</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D38" s="4">
         <v>22</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D39" s="4">
         <v>23</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D40" s="4">
         <v>24</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D41" s="4">
         <v>25</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D42" s="4">
         <v>26</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D43" s="4">
         <v>27</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D44" s="4">
         <v>28</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D45" s="4">
         <v>29</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D46" s="4">
         <v>30</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>15</v>
@@ -4190,36 +4073,36 @@
         <v>15</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D47" s="4">
         <v>31</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>15</v>
@@ -4228,358 +4111,358 @@
         <v>15</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K47" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D48" s="4">
         <v>32</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D49" s="4">
         <v>33</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D50" s="4">
         <v>34</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K50" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D51" s="4">
         <v>35</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D52" s="4">
         <v>36</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D53" s="4">
         <v>37</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K53" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D54" s="4">
         <v>38</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D55" s="4">
         <v>39</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D56" s="4">
         <v>40</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K56" s="5" t="s">
         <v>16</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -4587,25 +4470,25 @@
         <v>29</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>30</v>
@@ -4614,287 +4497,287 @@
         <v>28</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="K59" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K62" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>415</v>
+        <v>477</v>
       </c>
       <c r="K63" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K65" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="K65" s="5" t="s">
-        <v>264</v>
-      </c>
       <c r="L65" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -4902,34 +4785,34 @@
         <v>2</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -4937,34 +4820,34 @@
         <v>3</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>27</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -4972,34 +4855,34 @@
         <v>4</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J68" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -5007,34 +4890,34 @@
         <v>5</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J69" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -5042,34 +4925,34 @@
         <v>6</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J70" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -5077,34 +4960,34 @@
         <v>7</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -5112,34 +4995,34 @@
         <v>8</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -5147,34 +5030,34 @@
         <v>9</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J73" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -5182,34 +5065,34 @@
         <v>10</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J74" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -5217,34 +5100,34 @@
         <v>11</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -5252,34 +5135,34 @@
         <v>12</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J76" s="7" t="s">
         <v>18</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -5287,1329 +5170,1084 @@
         <v>13</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J77" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I85" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="J85" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="J85" s="7" t="s">
-        <v>456</v>
-      </c>
       <c r="K85" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>511</v>
+        <v>468</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>511</v>
+        <v>468</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>511</v>
+        <v>468</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>511</v>
+        <v>468</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>511</v>
+        <v>468</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="K91" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>248</v>
-      </c>
       <c r="G92" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="K92" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="K93" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>39</v>
+        <v>253</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>70</v>
+        <v>254</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I94" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="K94" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>260</v>
+        <v>387</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>262</v>
+        <v>33</v>
       </c>
       <c r="K95" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>416</v>
+        <v>32</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>242</v>
+        <v>55</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>69</v>
+        <v>370</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K96" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>395</v>
+        <v>39</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>396</v>
+        <v>66</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>248</v>
+        <v>367</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="K97" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>461</v>
+        <v>191</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>332</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K98" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>461</v>
+        <v>365</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
       <c r="K99" s="5" t="s">
-        <v>28</v>
+        <v>257</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>463</v>
+        <v>247</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>466</v>
+        <v>248</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>461</v>
+        <v>365</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>470</v>
+        <v>249</v>
       </c>
       <c r="K100" s="5" t="s">
-        <v>28</v>
+        <v>257</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>464</v>
+        <v>37</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>467</v>
+        <v>57</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>461</v>
+        <v>365</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>469</v>
+        <v>67</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>471</v>
+        <v>38</v>
       </c>
       <c r="K101" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>465</v>
+        <v>34</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>468</v>
+        <v>56</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>461</v>
+        <v>365</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>469</v>
+        <v>67</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>472</v>
+        <v>228</v>
       </c>
       <c r="K102" s="5" t="s">
-        <v>28</v>
+        <v>257</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>462</v>
+        <v>365</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>388</v>
+        <v>67</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>31</v>
+        <v>229</v>
       </c>
       <c r="K103" s="5" t="s">
-        <v>28</v>
+        <v>257</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>41</v>
+        <v>344</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>71</v>
+        <v>352</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>462</v>
+        <v>365</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>385</v>
+        <v>67</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>76</v>
+        <v>268</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c r="I104" s="7" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="K104" s="5" t="s">
-        <v>28</v>
+        <v>257</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>60</v>
+        <v>346</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>61</v>
+        <v>351</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>198</v>
+        <v>365</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>62</v>
+        <v>347</v>
       </c>
       <c r="K105" s="5" t="s">
-        <v>28</v>
+        <v>257</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>389</v>
+        <v>348</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>392</v>
+        <v>67</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>275</v>
+        <v>15</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>390</v>
+        <v>349</v>
       </c>
       <c r="K106" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>254</v>
+        <v>434</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>255</v>
+        <v>435</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>383</v>
+        <v>191</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>351</v>
+        <v>469</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>387</v>
+        <v>65</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>126</v>
+        <v>224</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>256</v>
+        <v>434</v>
       </c>
       <c r="K107" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I108" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="J108" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K108" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L108" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I109" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="J109" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="K109" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="L109" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="I110" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="J110" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K110" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="L110" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I111" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="J111" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="K111" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="L111" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I112" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="J112" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="K112" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="L112" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I113" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="J113" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="K113" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="L113" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I114" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="J114" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="K114" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="L114" s="5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -6638,10 +6276,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F4DEC5-9444-4CCA-99A1-212DC975A3D7}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6657,39 +6295,39 @@
   <sheetData>
     <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>480</v>
+        <v>439</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>506</v>
+        <v>465</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>509</v>
+        <v>467</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>482</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F2" s="10">
         <v>53</v>
@@ -6697,19 +6335,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F3" s="10">
         <v>54</v>
@@ -6717,19 +6355,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F4" s="10">
         <v>199</v>
@@ -6737,19 +6375,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F5" s="10">
         <v>27</v>
@@ -6757,19 +6395,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F6" s="10">
         <v>97</v>
@@ -6777,19 +6415,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F7" s="10">
         <v>95</v>
@@ -6797,530 +6435,430 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F8" s="10">
-        <v>13</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F9" s="10">
-        <v>229</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F10" s="10">
-        <v>93</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F11" s="10">
-        <v>50</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F12" s="10">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F13" s="10">
-        <v>212</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F14" s="10">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F15" s="10">
-        <v>15</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>353</v>
+        <v>287</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F16" s="10">
-        <v>92</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F17" s="10">
-        <v>341</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F18" s="10">
-        <v>205</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>297</v>
+        <v>473</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F19" s="10">
-        <v>231</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F20" s="10">
-        <v>321</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F21" s="10">
-        <v>374</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F22" s="10">
-        <v>351</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>516</v>
+        <v>293</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F23" s="10">
-        <v>427</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" s="10">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F25" s="10">
-        <v>445</v>
+      <c r="D25" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="10">
-        <v>17</v>
+      <c r="A26" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="9">
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="10">
-        <v>190</v>
+      <c r="A27" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>344</v>
+        <v>468</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>330</v>
+        <v>470</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>125</v>
+        <v>471</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>397</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="9">
-        <v>10</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>359</v>
+        <v>469</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>360</v>
+        <v>469</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>361</v>
+        <v>472</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" s="9">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/deployment/forecast-tables.xlsx
+++ b/deployment/forecast-tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D6D3CD-192A-4296-AB44-B5B6F962B8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77AC4F0-F943-4DF1-AE4B-8D4EEA2ECA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5917CAB-2590-4FE1-9E2D-85810580C73C}"/>
   </bookViews>
   <sheets>
     <sheet name="forecasts" sheetId="12" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="483">
   <si>
     <t>gdp</t>
   </si>
@@ -1469,6 +1469,21 @@
   </si>
   <si>
     <t>CPIAUCSL</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Fannie Mae's &lt;a href="https://www.fanniemae.com/research-and-insights/forecast"&gt;Economic &amp;amp; Housing Outlook&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>The Philadelphia Federal Reserve's &lt;a href="https://www.philadelphiafed.org/surveys-and-data/real-time-data-research/survey-of-professional-forecasters"&gt;Survey of Professional Forecasters&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>The U.S. Congressional Budget Office's &lt;a href="https://www.cbo.gov/data/budget-economic-data"&gt;10-Year Economic Projections&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>The Wall Street Journal Economic Survey</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1563,6 +1578,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2172,10 +2190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1299AB-5478-4000-9ACB-E921592DFFDD}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2183,9 +2201,10 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="6" max="6" width="181.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>439</v>
       </c>
@@ -2201,8 +2220,11 @@
       <c r="E1" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>433</v>
       </c>
@@ -2219,7 +2241,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>463</v>
       </c>
@@ -2236,7 +2258,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>461</v>
       </c>
@@ -2253,7 +2275,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>444</v>
       </c>
@@ -2267,10 +2289,13 @@
         <v>437</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="F5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>445</v>
       </c>
@@ -2281,13 +2306,14 @@
         <v>452</v>
       </c>
       <c r="D6" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>446</v>
       </c>
@@ -2301,10 +2327,13 @@
         <v>437</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="F7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>447</v>
       </c>
@@ -2318,10 +2347,13 @@
         <v>437</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="F8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>448</v>
       </c>
@@ -2335,7 +2367,10 @@
         <v>437</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>257</v>
+      </c>
+      <c r="F9" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -2347,8 +2382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C376F7-1E7E-44FE-9F6F-977B435E0AEC}">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6279,7 +6314,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
